--- a/Les différents types de Ferae.xlsx
+++ b/Les différents types de Ferae.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X181880\OneDrive - GROUP DIGITAL WORKPLACE\Documents\Privé\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{65500931-93D8-4B88-8DBF-69F84E0A7043}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{0E7AA15A-5162-4CD6-AA6E-1200A94A5E40}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FD72BB3F-1182-489A-AF03-63ACBC7C59A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2D074A1-80A0-4B01-B3A3-B9DF93BE700D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Espèces" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Auspices!$A$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Espèces!$A$1:$J$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Espèces!$A$1:$K$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tribus!$A$1:$B$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="185">
   <si>
     <t>Espèce</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Don Unique</t>
   </si>
   <si>
-    <t>Don Affinité</t>
-  </si>
-  <si>
     <t>Moment de 1er Changement</t>
   </si>
   <si>
@@ -587,6 +584,15 @@
   </si>
   <si>
     <t>Auspices limitées à Cahalithe et leur Renommé principale est la Ruse</t>
+  </si>
+  <si>
+    <t>Savoir ?</t>
+  </si>
+  <si>
+    <t>Furtivité ?</t>
+  </si>
+  <si>
+    <t>Mort</t>
   </si>
 </sst>
 </file>
@@ -955,10 +961,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,10 +978,11 @@
     <col min="7" max="7" width="22.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,22 +999,25 @@
         <v>33</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1024,13 +1034,13 @@
         <v>34</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1047,10 +1057,10 @@
         <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1067,13 +1077,19 @@
         <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="H4" t="s">
+        <v>184</v>
       </c>
       <c r="I4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="J4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1090,16 +1106,16 @@
         <v>35</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1116,10 +1132,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1137,7 +1153,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1154,13 +1170,13 @@
         <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1194,16 +1210,16 @@
         <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1220,13 +1236,13 @@
         <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1243,13 +1259,13 @@
         <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>166</v>
-      </c>
-      <c r="J12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1266,24 +1282,28 @@
         <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J13" xr:uid="{34298D81-0FE3-402E-ACB8-ACB4A3B717C7}">
+  <autoFilter ref="A1:K13" xr:uid="{34298D81-0FE3-402E-ACB8-ACB4A3B717C7}">
     <filterColumn colId="1">
       <filters>
         <filter val="Luna"/>
@@ -1314,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1336,7 +1356,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1352,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1360,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1368,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1384,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,7 +1412,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1400,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1408,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,10 +1452,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,10 +1463,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1454,10 +1474,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1465,10 +1485,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1476,10 +1496,10 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,10 +1507,10 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,10 +1518,10 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,10 +1529,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1520,7 +1540,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1528,7 +1548,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,7 +1580,7 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,7 +1588,7 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1576,7 +1596,7 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,7 +1604,7 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1624,7 +1644,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1632,7 +1652,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1640,7 +1660,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1648,7 +1668,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1656,7 +1676,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1664,7 +1684,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1692,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,7 +1700,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1714,13 +1734,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>37</v>
@@ -1729,10 +1749,10 @@
         <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1746,7 +1766,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>40</v>
@@ -1755,10 +1775,10 @@
         <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1772,19 +1792,19 @@
         <v>42</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1798,7 +1818,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>46</v>
@@ -1807,10 +1827,10 @@
         <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1824,7 +1844,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>49</v>
@@ -1833,10 +1853,10 @@
         <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1850,7 +1870,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>52</v>
@@ -1859,10 +1879,10 @@
         <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1876,7 +1896,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
         <v>55</v>
@@ -1896,7 +1916,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
@@ -1916,7 +1936,7 @@
         <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
@@ -1936,7 +1956,7 @@
         <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
         <v>64</v>
@@ -1956,7 +1976,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>67</v>
@@ -1978,7 +1998,7 @@
         <v>69</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>70</v>
@@ -2000,7 +2020,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>73</v>
@@ -2022,7 +2042,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>76</v>
@@ -2044,7 +2064,7 @@
         <v>78</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>79</v>
@@ -2066,7 +2086,7 @@
         <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>82</v>
@@ -2088,7 +2108,7 @@
         <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
         <v>85</v>
@@ -2108,7 +2128,7 @@
         <v>87</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
         <v>88</v>
@@ -2128,7 +2148,7 @@
         <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
         <v>91</v>

--- a/Les différents types de Ferae.xlsx
+++ b/Les différents types de Ferae.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X181880\OneDrive - GROUP DIGITAL WORKPLACE\Documents\Privé\Ferae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertolen\Documents\JdR\Univers\Chroniques des Ténèbres\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FD72BB3F-1182-489A-AF03-63ACBC7C59A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2D074A1-80A0-4B01-B3A3-B9DF93BE700D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60972353-64A2-401E-B1B4-5C2C8C4A198F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Espèces" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Auspices!$A$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Espèces!$A$1:$K$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Espèces!$A$1:$L$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tribus!$A$1:$B$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="186">
   <si>
     <t>Espèce</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>Mort</t>
+  </si>
+  <si>
+    <t>Renomée</t>
   </si>
 </sst>
 </file>
@@ -961,28 +964,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.73046875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,26 +1001,29 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1033,14 +1039,14 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1056,11 +1062,11 @@
       <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1076,20 +1082,23 @@
       <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>184</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>182</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1105,17 +1114,17 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1131,11 +1140,11 @@
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1151,9 +1160,9 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1169,14 +1178,14 @@
       <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1193,7 +1202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1209,17 +1218,20 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1235,14 +1247,14 @@
       <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1258,14 +1270,14 @@
       <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>165</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1281,29 +1293,32 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>146</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I14" s="4"/>
       <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K13" xr:uid="{34298D81-0FE3-402E-ACB8-ACB4A3B717C7}">
+  <autoFilter ref="A1:L13" xr:uid="{34298D81-0FE3-402E-ACB8-ACB4A3B717C7}">
     <filterColumn colId="1">
       <filters>
         <filter val="Luna"/>
@@ -1324,12 +1339,12 @@
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1358,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1359,7 +1374,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1375,7 +1390,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1383,7 +1398,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1391,7 +1406,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1399,7 +1414,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1407,7 +1422,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1415,7 +1430,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1423,7 +1438,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1431,7 +1446,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1454,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1447,7 +1462,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1458,7 +1473,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1469,7 +1484,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +1495,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1491,7 +1506,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1502,7 +1517,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1513,7 +1528,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1524,7 +1539,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1550,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1543,7 +1558,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1551,7 +1566,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1574,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1567,7 +1582,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1575,7 +1590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1583,7 +1598,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1591,7 +1606,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1599,7 +1614,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1607,7 +1622,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1615,7 +1630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1631,7 +1646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1639,7 +1654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1647,7 +1662,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1655,7 +1670,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -1663,7 +1678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1671,7 +1686,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1679,7 +1694,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -1687,7 +1702,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -1695,7 +1710,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -1718,18 +1733,18 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="73.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" customWidth="1"/>
+    <col min="5" max="5" width="73.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1755,7 +1770,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1781,7 +1796,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1807,7 +1822,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1833,7 +1848,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1859,7 +1874,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1885,7 +1900,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1905,7 +1920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1925,7 +1940,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1945,7 +1960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1965,7 +1980,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1987,7 +2002,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2024,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2031,7 +2046,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2068,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2075,7 +2090,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2112,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2117,7 +2132,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2137,7 +2152,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>7</v>
       </c>

--- a/Les différents types de Ferae.xlsx
+++ b/Les différents types de Ferae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertolen\Documents\JdR\Univers\Chroniques des Ténèbres\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60972353-64A2-401E-B1B4-5C2C8C4A198F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BE664C-E7CD-4059-8BD3-D5F0CB494403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="189">
   <si>
     <t>Espèce</t>
   </si>
@@ -596,6 +598,15 @@
   </si>
   <si>
     <t>Renomée</t>
+  </si>
+  <si>
+    <t>Aucune *</t>
+  </si>
+  <si>
+    <t>* Un point de Renomée de moins à la création de personnage</t>
+  </si>
+  <si>
+    <t>Lobby/mafia</t>
   </si>
 </sst>
 </file>
@@ -964,10 +975,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -978,7 +989,7 @@
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.265625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.265625" bestFit="1" customWidth="1"/>
@@ -1160,7 +1171,12 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="F7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -1316,6 +1332,11 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L13" xr:uid="{34298D81-0FE3-402E-ACB8-ACB4A3B717C7}">

--- a/Les différents types de Ferae.xlsx
+++ b/Les différents types de Ferae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertolen\Documents\JdR\Univers\Chroniques des Ténèbres\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BE664C-E7CD-4059-8BD3-D5F0CB494403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F422F88-C89B-47DB-848E-5BFB40BAD459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,7 +978,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Les différents types de Ferae.xlsx
+++ b/Les différents types de Ferae.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X181880\OneDrive - GROUP DIGITAL WORKPLACE\Documents\Privé\Ferae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertolen\Documents\JdR\Univers\Chroniques des Ténèbres\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="866" documentId="6_{0B842FC3-04D2-4DB4-832A-0232CD8B1350}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{05234578-F408-40FF-B4F6-25F2BC260D79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC3EF67-1937-4786-9059-44D112726FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2520" windowWidth="15375" windowHeight="8460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Espèces" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Auspices!$A$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Espèces!$A$1:$L$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Espèces!$A$1:$M$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Formes!$A$1:$G$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Formes (2)'!$A$1:$H$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tribus!$A$1:$B$43</definedName>
@@ -34,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="257">
   <si>
     <t>Espèce</t>
   </si>
@@ -1774,6 +1776,36 @@
 Griffes et crocs +0L
 Ne provoque pas la Lunacie</t>
     </r>
+  </si>
+  <si>
+    <t>Archétype</t>
+  </si>
+  <si>
+    <t>Comploteur</t>
+  </si>
+  <si>
+    <t>Érudit</t>
+  </si>
+  <si>
+    <t>Messager</t>
+  </si>
+  <si>
+    <t>Guerrisseur</t>
+  </si>
+  <si>
+    <t>Mémoire</t>
+  </si>
+  <si>
+    <t>Assassin</t>
+  </si>
+  <si>
+    <t>Farceur</t>
+  </si>
+  <si>
+    <t>Traqueur</t>
+  </si>
+  <si>
+    <t>Manipulateur</t>
   </si>
 </sst>
 </file>
@@ -2037,7 +2069,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9517,7 +9549,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="529768672"/>
@@ -9576,7 +9608,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="529138424"/>
@@ -9628,7 +9660,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9665,7 +9697,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10523,28 +10555,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.73046875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10555,34 +10588,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10592,20 +10628,20 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -10615,17 +10651,20 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -10635,29 +10674,32 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>184</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>182</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -10667,23 +10709,26 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -10693,17 +10738,20 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -10713,20 +10761,23 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>186</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -10736,20 +10787,23 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -10759,14 +10813,17 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -10776,26 +10833,29 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -10805,20 +10865,20 @@
       <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -10828,20 +10888,20 @@
       <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>165</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -10851,43 +10911,46 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="J14" s="4"/>
       <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L13" xr:uid="{34298D81-0FE3-402E-ACB8-ACB4A3B717C7}"/>
+  <autoFilter ref="A1:M13" xr:uid="{34298D81-0FE3-402E-ACB8-ACB4A3B717C7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -10902,12 +10965,12 @@
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10921,7 +10984,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10929,7 +10992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -10937,7 +11000,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -10945,7 +11008,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -10953,7 +11016,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -10961,7 +11024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -10969,7 +11032,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -10977,7 +11040,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -10985,7 +11048,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -10993,7 +11056,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -11001,7 +11064,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -11009,7 +11072,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -11017,7 +11080,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -11025,7 +11088,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -11036,7 +11099,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -11047,7 +11110,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -11058,7 +11121,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -11069,7 +11132,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -11080,7 +11143,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -11091,7 +11154,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -11102,7 +11165,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -11113,7 +11176,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -11121,7 +11184,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -11129,7 +11192,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -11137,7 +11200,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -11145,7 +11208,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -11153,7 +11216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -11161,7 +11224,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -11169,7 +11232,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -11177,7 +11240,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -11185,7 +11248,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -11193,7 +11256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -11201,7 +11264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -11209,7 +11272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -11217,7 +11280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -11225,7 +11288,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -11233,7 +11296,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -11241,7 +11304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -11249,7 +11312,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -11257,7 +11320,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -11265,7 +11328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -11273,7 +11336,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -11296,18 +11359,18 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="73.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" customWidth="1"/>
+    <col min="5" max="5" width="73.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11333,7 +11396,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -11359,7 +11422,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -11385,7 +11448,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -11411,7 +11474,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -11437,7 +11500,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -11463,7 +11526,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -11483,7 +11546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -11503,7 +11566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -11523,7 +11586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -11543,7 +11606,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -11565,7 +11628,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -11587,7 +11650,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -11609,7 +11672,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -11631,7 +11694,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -11653,7 +11716,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -11675,7 +11738,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -11695,7 +11758,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -11715,7 +11778,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -11747,22 +11810,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC9E6D6-F6D2-4E02-9E27-2D34B665D87B}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1328125" customWidth="1"/>
+    <col min="7" max="7" width="15.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11785,7 +11848,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -11806,7 +11869,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -11827,7 +11890,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -11848,7 +11911,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -11869,7 +11932,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -11890,7 +11953,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
@@ -11913,7 +11976,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -11934,7 +11997,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
@@ -11955,7 +12018,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
@@ -11976,7 +12039,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="114" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
@@ -11997,7 +12060,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
@@ -12018,7 +12081,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="228" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
@@ -12041,17 +12104,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" ht="57" x14ac:dyDescent="0.45">
       <c r="C19" s="7" t="s">
         <v>237</v>
       </c>
@@ -12075,17 +12138,17 @@
       <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12111,7 +12174,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
@@ -12138,7 +12201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -12165,7 +12228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -12192,7 +12255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -12219,7 +12282,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -12251,7 +12314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -12283,7 +12346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -12310,7 +12373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -12333,7 +12396,7 @@
       </c>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>6</v>
       </c>
@@ -12356,7 +12419,7 @@
       </c>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="19" t="s">
         <v>6</v>
       </c>
@@ -12379,7 +12442,7 @@
       </c>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
@@ -12402,7 +12465,7 @@
       </c>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -12419,7 +12482,7 @@
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21">
-        <f t="shared" ref="E13:H13" si="3">F9+F10+F15-$D15</f>
+        <f t="shared" ref="F13:H13" si="3">F9+F10+F15-$D15</f>
         <v>5</v>
       </c>
       <c r="G13" s="21">
@@ -12431,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>6</v>
       </c>
@@ -12448,7 +12511,7 @@
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21">
-        <f t="shared" ref="E14:H14" si="4">F10</f>
+        <f t="shared" ref="F14:H14" si="4">F10</f>
         <v>3</v>
       </c>
       <c r="G14" s="21">
@@ -12460,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
         <v>6</v>
       </c>
@@ -12485,7 +12548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="23" t="s">
         <v>10</v>
       </c>
@@ -12512,7 +12575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
@@ -12539,7 +12602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="23" t="s">
         <v>10</v>
       </c>
@@ -12566,7 +12629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="23" t="s">
         <v>10</v>
       </c>
@@ -12593,7 +12656,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>10</v>
       </c>
@@ -12625,7 +12688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="23" t="s">
         <v>10</v>
       </c>
@@ -12657,7 +12720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="23" t="s">
         <v>10</v>
       </c>
@@ -12684,7 +12747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="27" t="s">
         <v>12</v>
       </c>
@@ -12707,7 +12770,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="27" t="s">
         <v>12</v>
       </c>
@@ -12730,7 +12793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="27" t="s">
         <v>12</v>
       </c>
@@ -12753,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="27" t="s">
         <v>12</v>
       </c>
@@ -12776,7 +12839,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="27" t="s">
         <v>12</v>
       </c>
@@ -12793,7 +12856,7 @@
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29">
-        <f t="shared" ref="E27:H27" si="7">F23+F24+F29-$D29</f>
+        <f t="shared" ref="F27:H27" si="7">F23+F24+F29-$D29</f>
         <v>2</v>
       </c>
       <c r="G27" s="29"/>
@@ -12802,7 +12865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="27" t="s">
         <v>12</v>
       </c>
@@ -12819,7 +12882,7 @@
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29">
-        <f t="shared" ref="E28:H28" si="8">F24</f>
+        <f t="shared" ref="F28:H28" si="8">F24</f>
         <v>1</v>
       </c>
       <c r="G28" s="29"/>
@@ -12828,7 +12891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="27" t="s">
         <v>12</v>
       </c>
@@ -12851,7 +12914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="31" t="s">
         <v>15</v>
       </c>
@@ -12878,7 +12941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="31" t="s">
         <v>15</v>
       </c>
@@ -12903,7 +12966,7 @@
       </c>
       <c r="H31" s="32"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="31" t="s">
         <v>15</v>
       </c>
@@ -12930,7 +12993,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="31" t="s">
         <v>15</v>
       </c>
@@ -12957,7 +13020,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="31" t="s">
         <v>15</v>
       </c>
@@ -12989,7 +13052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="31" t="s">
         <v>15</v>
       </c>
@@ -13021,7 +13084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="31" t="s">
         <v>15</v>
       </c>
@@ -13048,7 +13111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="35" t="s">
         <v>17</v>
       </c>
@@ -13075,7 +13138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="35" t="s">
         <v>17</v>
       </c>
@@ -13102,7 +13165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="35" t="s">
         <v>17</v>
       </c>
@@ -13129,7 +13192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="35" t="s">
         <v>17</v>
       </c>
@@ -13156,7 +13219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="35" t="s">
         <v>17</v>
       </c>
@@ -13188,7 +13251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="35" t="s">
         <v>17</v>
       </c>
@@ -13220,7 +13283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="35" t="s">
         <v>17</v>
       </c>
@@ -13247,7 +13310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="37" t="s">
         <v>22</v>
       </c>
@@ -13274,7 +13337,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="37" t="s">
         <v>22</v>
       </c>
@@ -13301,7 +13364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="37" t="s">
         <v>22</v>
       </c>
@@ -13328,7 +13391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="37" t="s">
         <v>22</v>
       </c>
@@ -13355,7 +13418,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="37" t="s">
         <v>22</v>
       </c>
@@ -13387,7 +13450,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="37" t="s">
         <v>22</v>
       </c>
@@ -13419,7 +13482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="37" t="s">
         <v>22</v>
       </c>
@@ -13446,7 +13509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="41" t="s">
         <v>24</v>
       </c>
@@ -13473,7 +13536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="41" t="s">
         <v>24</v>
       </c>
@@ -13500,7 +13563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="41" t="s">
         <v>24</v>
       </c>
@@ -13527,7 +13590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="41" t="s">
         <v>24</v>
       </c>
@@ -13554,7 +13617,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="41" t="s">
         <v>24</v>
       </c>
@@ -13586,7 +13649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="41" t="s">
         <v>24</v>
       </c>
@@ -13618,7 +13681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="41" t="s">
         <v>24</v>
       </c>
@@ -13645,7 +13708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="45" t="s">
         <v>26</v>
       </c>
@@ -13668,7 +13731,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="45" t="s">
         <v>26</v>
       </c>
@@ -13691,7 +13754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="45" t="s">
         <v>26</v>
       </c>
@@ -13714,7 +13777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="45" t="s">
         <v>26</v>
       </c>
@@ -13737,7 +13800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="45" t="s">
         <v>26</v>
       </c>
@@ -13754,7 +13817,7 @@
       </c>
       <c r="E62" s="47"/>
       <c r="F62" s="47">
-        <f t="shared" ref="E62:H62" si="17">F58+F59+F64-$D64</f>
+        <f t="shared" ref="F62:H62" si="17">F58+F59+F64-$D64</f>
         <v>5</v>
       </c>
       <c r="G62" s="47"/>
@@ -13763,7 +13826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="45" t="s">
         <v>26</v>
       </c>
@@ -13780,7 +13843,7 @@
       </c>
       <c r="E63" s="47"/>
       <c r="F63" s="47">
-        <f t="shared" ref="E63:H63" si="18">F59</f>
+        <f t="shared" ref="F63:H63" si="18">F59</f>
         <v>4</v>
       </c>
       <c r="G63" s="47"/>
@@ -13789,7 +13852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="45" t="s">
         <v>26</v>
       </c>
@@ -13812,7 +13875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="49" t="s">
         <v>28</v>
       </c>
@@ -13839,7 +13902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="49" t="s">
         <v>28</v>
       </c>
@@ -13866,7 +13929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="49" t="s">
         <v>28</v>
       </c>
@@ -13893,7 +13956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="49" t="s">
         <v>28</v>
       </c>
@@ -13920,7 +13983,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="49" t="s">
         <v>28</v>
       </c>
@@ -13952,7 +14015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="49" t="s">
         <v>28</v>
       </c>
@@ -13984,7 +14047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="49" t="s">
         <v>28</v>
       </c>
@@ -14011,7 +14074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="53" t="s">
         <v>30</v>
       </c>
@@ -14038,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="53" t="s">
         <v>30</v>
       </c>
@@ -14065,7 +14128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="53" t="s">
         <v>30</v>
       </c>
@@ -14092,7 +14155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="53" t="s">
         <v>30</v>
       </c>
@@ -14119,7 +14182,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="53" t="s">
         <v>30</v>
       </c>
@@ -14151,7 +14214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="53" t="s">
         <v>30</v>
       </c>
@@ -14183,7 +14246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="53" t="s">
         <v>30</v>
       </c>

--- a/Les différents types de Ferae.xlsx
+++ b/Les différents types de Ferae.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertolen\Documents\JdR\Univers\Chroniques des Ténèbres\Ferae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X181880\OneDrive - GROUP DIGITAL WORKPLACE\Documents\Privé\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC3EF67-1937-4786-9059-44D112726FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0DC3EF67-1937-4786-9059-44D112726FEB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{237A8E28-2549-4FCA-891E-D726775F6286}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Espèces" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="255">
   <si>
     <t>Espèce</t>
   </si>
@@ -590,15 +588,6 @@
   </si>
   <si>
     <t>Auspices limitées à Cahalithe et leur Renommé principale est la Ruse</t>
-  </si>
-  <si>
-    <t>Savoir ?</t>
-  </si>
-  <si>
-    <t>Furtivité ?</t>
-  </si>
-  <si>
-    <t>Mort</t>
   </si>
   <si>
     <t>Renomée</t>
@@ -1806,6 +1795,9 @@
   </si>
   <si>
     <t>Manipulateur</t>
+  </si>
+  <si>
+    <t>Manifestation</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2049,6 +2041,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2069,7 +2062,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9549,7 +9542,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="529768672"/>
@@ -9608,7 +9601,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="529138424"/>
@@ -9660,7 +9653,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9697,7 +9690,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10558,26 +10551,26 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10588,7 +10581,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -10597,7 +10590,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>150</v>
@@ -10618,7 +10611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10641,7 +10634,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -10652,7 +10645,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -10664,7 +10657,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -10675,7 +10668,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -10689,17 +10682,8 @@
       <c r="H4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="J4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -10710,7 +10694,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -10728,7 +10712,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -10739,7 +10723,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -10751,7 +10735,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -10762,7 +10746,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -10771,13 +10755,16 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+        <v>185</v>
+      </c>
+      <c r="J7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -10788,7 +10775,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -10803,7 +10790,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -10814,7 +10801,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -10823,7 +10810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -10834,7 +10821,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -10855,7 +10842,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -10878,7 +10865,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -10901,7 +10888,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -10912,7 +10899,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -10939,15 +10926,16 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>187</v>
-      </c>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M13" xr:uid="{34298D81-0FE3-402E-ACB8-ACB4A3B717C7}"/>
@@ -10965,12 +10953,12 @@
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10984,7 +10972,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10992,7 +10980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -11000,7 +10988,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11008,7 +10996,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -11016,7 +11004,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11024,7 +11012,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -11032,7 +11020,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -11040,7 +11028,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -11048,7 +11036,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -11056,7 +11044,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -11064,7 +11052,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -11072,7 +11060,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -11080,7 +11068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -11088,7 +11076,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -11099,7 +11087,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -11110,7 +11098,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -11121,7 +11109,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -11132,7 +11120,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -11143,7 +11131,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -11154,7 +11142,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -11165,7 +11153,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -11176,7 +11164,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -11184,7 +11172,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -11192,7 +11180,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -11200,7 +11188,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -11208,7 +11196,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -11216,7 +11204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -11224,7 +11212,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -11232,7 +11220,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -11240,7 +11228,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -11248,7 +11236,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -11256,7 +11244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -11264,7 +11252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -11272,7 +11260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -11280,7 +11268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -11288,7 +11276,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -11296,7 +11284,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -11304,7 +11292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -11312,7 +11300,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -11320,7 +11308,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -11328,7 +11316,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -11336,7 +11324,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -11359,18 +11347,18 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" customWidth="1"/>
-    <col min="5" max="5" width="73.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11396,7 +11384,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -11422,7 +11410,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -11448,7 +11436,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -11474,7 +11462,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -11500,7 +11488,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -11526,7 +11514,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -11546,7 +11534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -11566,7 +11554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -11586,7 +11574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -11606,7 +11594,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -11628,7 +11616,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -11650,7 +11638,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -11672,7 +11660,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -11694,7 +11682,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -11716,7 +11704,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -11738,7 +11726,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -11758,7 +11746,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -11778,7 +11766,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -11817,59 +11805,59 @@
       <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1328125" customWidth="1"/>
-    <col min="7" max="7" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>204</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -11878,40 +11866,40 @@
         <v>136</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>136</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>228</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>231</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -11920,63 +11908,63 @@
         <v>136</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>136</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>210</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>213</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>245</v>
-      </c>
       <c r="E7" s="57" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G7" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -11985,7 +11973,7 @@
         <v>136</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>136</v>
@@ -11997,49 +11985,49 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>214</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>217</v>
       </c>
       <c r="G9" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>218</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>221</v>
       </c>
       <c r="G10" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
@@ -12048,75 +12036,75 @@
         <v>136</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>224</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>227</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="228" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G13" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="57" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -12138,43 +12126,43 @@
       <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
@@ -12201,7 +12189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -12210,7 +12198,7 @@
         <v>Ajaba Dextérité</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D3" s="16">
         <v>0</v>
@@ -12228,7 +12216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -12237,7 +12225,7 @@
         <v>Ajaba Vigueur</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
@@ -12255,7 +12243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -12264,7 +12252,7 @@
         <v>Ajaba Manipulation</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D5" s="16">
         <v>0</v>
@@ -12282,7 +12270,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -12291,7 +12279,7 @@
         <v>Ajaba Vitesse</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D6" s="17">
         <f>D2+D3+D8-$D8</f>
@@ -12314,7 +12302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -12323,7 +12311,7 @@
         <v>Ajaba Initiative</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D7" s="17">
         <f>D3</f>
@@ -12346,7 +12334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -12355,7 +12343,7 @@
         <v>Ajaba Facteur espèce</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D8" s="18">
         <v>5</v>
@@ -12373,7 +12361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -12396,7 +12384,7 @@
       </c>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>6</v>
       </c>
@@ -12405,7 +12393,7 @@
         <v>Ananasi Dextérité</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D10" s="20">
         <v>0</v>
@@ -12419,7 +12407,7 @@
       </c>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>6</v>
       </c>
@@ -12428,7 +12416,7 @@
         <v>Ananasi Vigueur</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D11" s="20">
         <v>0</v>
@@ -12442,7 +12430,7 @@
       </c>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
@@ -12451,7 +12439,7 @@
         <v>Ananasi Manipulation</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D12" s="20">
         <v>0</v>
@@ -12465,7 +12453,7 @@
       </c>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -12474,7 +12462,7 @@
         <v>Ananasi Vitesse</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D13" s="21">
         <f>D9+D10+D15-$D15</f>
@@ -12494,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>6</v>
       </c>
@@ -12503,7 +12491,7 @@
         <v>Ananasi Initiative</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D14" s="21">
         <f>D10</f>
@@ -12523,7 +12511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>6</v>
       </c>
@@ -12532,7 +12520,7 @@
         <v>Ananasi Facteur espèce</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D15" s="22">
         <v>5</v>
@@ -12548,7 +12536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>10</v>
       </c>
@@ -12575,7 +12563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
@@ -12584,7 +12572,7 @@
         <v>Bastet Dextérité</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D17" s="24">
         <v>0</v>
@@ -12602,7 +12590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>10</v>
       </c>
@@ -12611,7 +12599,7 @@
         <v>Bastet Vigueur</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D18" s="24">
         <v>0</v>
@@ -12629,7 +12617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>10</v>
       </c>
@@ -12638,7 +12626,7 @@
         <v>Bastet Manipulation</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D19" s="24">
         <v>0</v>
@@ -12656,7 +12644,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>10</v>
       </c>
@@ -12665,7 +12653,7 @@
         <v>Bastet Vitesse</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D20" s="25">
         <f>D16+D17+D22-$D22</f>
@@ -12688,7 +12676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>10</v>
       </c>
@@ -12697,7 +12685,7 @@
         <v>Bastet Initiative</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D21" s="25">
         <f>D17</f>
@@ -12720,7 +12708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>10</v>
       </c>
@@ -12729,7 +12717,7 @@
         <v>Bastet Facteur espèce</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D22" s="26">
         <v>5</v>
@@ -12747,7 +12735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>12</v>
       </c>
@@ -12770,7 +12758,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>12</v>
       </c>
@@ -12779,7 +12767,7 @@
         <v>Corax Dextérité</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D24" s="28">
         <v>0</v>
@@ -12793,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>12</v>
       </c>
@@ -12802,7 +12790,7 @@
         <v>Corax Vigueur</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D25" s="28">
         <v>0</v>
@@ -12816,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>12</v>
       </c>
@@ -12825,7 +12813,7 @@
         <v>Corax Manipulation</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D26" s="28">
         <v>0</v>
@@ -12839,7 +12827,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>12</v>
       </c>
@@ -12848,7 +12836,7 @@
         <v>Corax Vitesse</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D27" s="29">
         <f>D23+D24+D29-$D29</f>
@@ -12865,7 +12853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>12</v>
       </c>
@@ -12874,7 +12862,7 @@
         <v>Corax Initiative</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D28" s="29">
         <f>D24</f>
@@ -12891,7 +12879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>12</v>
       </c>
@@ -12900,7 +12888,7 @@
         <v>Corax Facteur espèce</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D29" s="30">
         <v>5</v>
@@ -12914,7 +12902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>15</v>
       </c>
@@ -12941,7 +12929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>15</v>
       </c>
@@ -12950,7 +12938,7 @@
         <v>Gurahl Dextérité</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D31" s="32">
         <v>0</v>
@@ -12966,7 +12954,7 @@
       </c>
       <c r="H31" s="32"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>15</v>
       </c>
@@ -12975,7 +12963,7 @@
         <v>Gurahl Vigueur</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D32" s="32">
         <v>0</v>
@@ -12993,7 +12981,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>15</v>
       </c>
@@ -13002,7 +12990,7 @@
         <v>Gurahl Manipulation</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D33" s="32">
         <v>0</v>
@@ -13020,7 +13008,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>15</v>
       </c>
@@ -13029,7 +13017,7 @@
         <v>Gurahl Vitesse</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D34" s="33">
         <f>D30+D31+D36-$D36</f>
@@ -13052,7 +13040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>15</v>
       </c>
@@ -13061,7 +13049,7 @@
         <v>Gurahl Initiative</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D35" s="33">
         <f>D31</f>
@@ -13084,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>15</v>
       </c>
@@ -13093,7 +13081,7 @@
         <v>Gurahl Facteur espèce</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D36" s="34">
         <v>5</v>
@@ -13111,7 +13099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
         <v>17</v>
       </c>
@@ -13138,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
         <v>17</v>
       </c>
@@ -13147,7 +13135,7 @@
         <v>Kitsune Dextérité</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D38" s="36">
         <v>0</v>
@@ -13165,7 +13153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
         <v>17</v>
       </c>
@@ -13174,7 +13162,7 @@
         <v>Kitsune Vigueur</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D39" s="36">
         <v>0</v>
@@ -13192,7 +13180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>17</v>
       </c>
@@ -13201,7 +13189,7 @@
         <v>Kitsune Manipulation</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D40" s="36">
         <v>1</v>
@@ -13219,7 +13207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
         <v>17</v>
       </c>
@@ -13228,7 +13216,7 @@
         <v>Kitsune Vitesse</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D41" s="36">
         <f>D37+D38+D43-$D43</f>
@@ -13251,7 +13239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
         <v>17</v>
       </c>
@@ -13260,7 +13248,7 @@
         <v>Kitsune Initiative</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D42" s="36">
         <f>D38</f>
@@ -13283,7 +13271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
         <v>17</v>
       </c>
@@ -13292,7 +13280,7 @@
         <v>Kitsune Facteur espèce</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D43" s="36">
         <v>5</v>
@@ -13310,7 +13298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>22</v>
       </c>
@@ -13337,7 +13325,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>22</v>
       </c>
@@ -13346,7 +13334,7 @@
         <v>Nâga Dextérité</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D45" s="38">
         <v>0</v>
@@ -13364,7 +13352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
         <v>22</v>
       </c>
@@ -13373,7 +13361,7 @@
         <v>Nâga Vigueur</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D46" s="38">
         <v>0</v>
@@ -13391,7 +13379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
         <v>22</v>
       </c>
@@ -13400,7 +13388,7 @@
         <v>Nâga Manipulation</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D47" s="38">
         <v>0</v>
@@ -13418,7 +13406,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
         <v>22</v>
       </c>
@@ -13427,7 +13415,7 @@
         <v>Nâga Vitesse</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D48" s="39">
         <f>D44+D45+D50-$D50</f>
@@ -13450,7 +13438,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
         <v>22</v>
       </c>
@@ -13459,7 +13447,7 @@
         <v>Nâga Initiative</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D49" s="39">
         <f>D45</f>
@@ -13482,7 +13470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
         <v>22</v>
       </c>
@@ -13491,7 +13479,7 @@
         <v>Nâga Facteur espèce</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D50" s="40">
         <v>5</v>
@@ -13509,7 +13497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>24</v>
       </c>
@@ -13536,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>24</v>
       </c>
@@ -13545,7 +13533,7 @@
         <v>Nuwisha Dextérité</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D52" s="42">
         <v>0</v>
@@ -13563,7 +13551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>24</v>
       </c>
@@ -13572,7 +13560,7 @@
         <v>Nuwisha Vigueur</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D53" s="42">
         <v>0</v>
@@ -13590,7 +13578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>24</v>
       </c>
@@ -13599,7 +13587,7 @@
         <v>Nuwisha Manipulation</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D54" s="42">
         <v>0</v>
@@ -13617,7 +13605,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>24</v>
       </c>
@@ -13626,7 +13614,7 @@
         <v>Nuwisha Vitesse</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D55" s="43">
         <f>D51+D52+D57-$D57</f>
@@ -13649,7 +13637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
         <v>24</v>
       </c>
@@ -13658,7 +13646,7 @@
         <v>Nuwisha Initiative</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D56" s="43">
         <f>D52</f>
@@ -13681,7 +13669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>24</v>
       </c>
@@ -13690,7 +13678,7 @@
         <v>Nuwisha Facteur espèce</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D57" s="44">
         <v>5</v>
@@ -13708,7 +13696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
         <v>26</v>
       </c>
@@ -13731,7 +13719,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
         <v>26</v>
       </c>
@@ -13740,7 +13728,7 @@
         <v>Ratkin Dextérité</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D59" s="46">
         <v>0</v>
@@ -13754,7 +13742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="45" t="s">
         <v>26</v>
       </c>
@@ -13763,7 +13751,7 @@
         <v>Ratkin Vigueur</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D60" s="46">
         <v>0</v>
@@ -13777,7 +13765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="45" t="s">
         <v>26</v>
       </c>
@@ -13786,7 +13774,7 @@
         <v>Ratkin Manipulation</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D61" s="46">
         <v>0</v>
@@ -13800,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="45" t="s">
         <v>26</v>
       </c>
@@ -13809,7 +13797,7 @@
         <v>Ratkin Vitesse</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D62" s="47">
         <f>D58+D59+D64-$D64</f>
@@ -13826,7 +13814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="45" t="s">
         <v>26</v>
       </c>
@@ -13835,7 +13823,7 @@
         <v>Ratkin Initiative</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D63" s="47">
         <f>D59</f>
@@ -13852,7 +13840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="45" t="s">
         <v>26</v>
       </c>
@@ -13861,7 +13849,7 @@
         <v>Ratkin Facteur espèce</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D64" s="48">
         <v>5</v>
@@ -13875,7 +13863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="49" t="s">
         <v>28</v>
       </c>
@@ -13902,7 +13890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="49" t="s">
         <v>28</v>
       </c>
@@ -13911,7 +13899,7 @@
         <v>Rokea Dextérité</v>
       </c>
       <c r="C66" s="49" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="50">
         <v>0</v>
@@ -13929,7 +13917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="49" t="s">
         <v>28</v>
       </c>
@@ -13938,7 +13926,7 @@
         <v>Rokea Vigueur</v>
       </c>
       <c r="C67" s="49" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D67" s="50">
         <v>0</v>
@@ -13956,7 +13944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="49" t="s">
         <v>28</v>
       </c>
@@ -13965,7 +13953,7 @@
         <v>Rokea Manipulation</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D68" s="50">
         <v>0</v>
@@ -13983,7 +13971,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="49" t="s">
         <v>28</v>
       </c>
@@ -13992,7 +13980,7 @@
         <v>Rokea Vitesse</v>
       </c>
       <c r="C69" s="49" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D69" s="51">
         <f>D65+D66+D71-$D71</f>
@@ -14015,7 +14003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="49" t="s">
         <v>28</v>
       </c>
@@ -14024,7 +14012,7 @@
         <v>Rokea Initiative</v>
       </c>
       <c r="C70" s="49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D70" s="51">
         <f>D66</f>
@@ -14047,7 +14035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
         <v>28</v>
       </c>
@@ -14056,7 +14044,7 @@
         <v>Rokea Facteur espèce</v>
       </c>
       <c r="C71" s="49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D71" s="52">
         <v>5</v>
@@ -14074,7 +14062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
         <v>30</v>
       </c>
@@ -14101,7 +14089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="53" t="s">
         <v>30</v>
       </c>
@@ -14110,7 +14098,7 @@
         <v>Uratha Dextérité</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D73" s="54">
         <v>0</v>
@@ -14128,7 +14116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="53" t="s">
         <v>30</v>
       </c>
@@ -14137,7 +14125,7 @@
         <v>Uratha Vigueur</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D74" s="54">
         <v>0</v>
@@ -14155,7 +14143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="53" t="s">
         <v>30</v>
       </c>
@@ -14164,7 +14152,7 @@
         <v>Uratha Manipulation</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D75" s="54">
         <v>0</v>
@@ -14182,7 +14170,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="53" t="s">
         <v>30</v>
       </c>
@@ -14191,7 +14179,7 @@
         <v>Uratha Vitesse</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D76" s="54">
         <f>D72+D73+D78-$D78</f>
@@ -14214,7 +14202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="53" t="s">
         <v>30</v>
       </c>
@@ -14223,7 +14211,7 @@
         <v>Uratha Initiative</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D77" s="54">
         <f>D73</f>
@@ -14246,7 +14234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="53" t="s">
         <v>30</v>
       </c>
@@ -14255,7 +14243,7 @@
         <v>Uratha Facteur espèce</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D78" s="54">
         <v>5</v>

--- a/Les différents types de Ferae.xlsx
+++ b/Les différents types de Ferae.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X181880\OneDrive - GROUP DIGITAL WORKPLACE\Documents\Privé\Ferae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertolen\Documents\JdR\Univers\Chroniques des Ténèbres\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0DC3EF67-1937-4786-9059-44D112726FEB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{237A8E28-2549-4FCA-891E-D726775F6286}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648587AF-B740-4E05-A0B5-322AB3CD76E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Espèces" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="253">
   <si>
     <t>Espèce</t>
   </si>
@@ -591,12 +593,6 @@
   </si>
   <si>
     <t>Renomée</t>
-  </si>
-  <si>
-    <t>Aucune *</t>
-  </si>
-  <si>
-    <t>* Un point de Renomée de moins à la création de personnage</t>
   </si>
   <si>
     <t>Lobby/mafia</t>
@@ -1797,7 +1793,7 @@
     <t>Manipulateur</t>
   </si>
   <si>
-    <t>Manifestation</t>
+    <t>Illusion</t>
   </si>
 </sst>
 </file>
@@ -2062,7 +2058,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9542,7 +9538,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="529768672"/>
@@ -9601,7 +9597,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="529138424"/>
@@ -9653,7 +9649,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9690,7 +9686,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10551,26 +10547,26 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.86328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10581,7 +10577,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -10611,7 +10607,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10634,7 +10630,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -10645,7 +10641,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -10657,7 +10653,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -10668,7 +10664,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -10683,7 +10679,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -10694,7 +10690,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -10712,7 +10708,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -10723,7 +10719,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -10735,7 +10731,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -10746,7 +10742,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -10755,16 +10751,16 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="J7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -10775,7 +10771,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -10790,7 +10786,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -10801,7 +10797,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -10810,7 +10806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -10821,7 +10817,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -10842,7 +10838,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -10865,7 +10861,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -10888,7 +10884,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -10899,7 +10895,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -10926,15 +10922,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
-        <v>184</v>
-      </c>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="58"/>
       <c r="B15" s="58"/>
     </row>
   </sheetData>
@@ -10953,12 +10947,12 @@
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10972,7 +10966,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10980,7 +10974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -10988,7 +10982,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -10996,7 +10990,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -11004,7 +10998,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11012,7 +11006,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -11020,7 +11014,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -11028,7 +11022,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -11036,7 +11030,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -11044,7 +11038,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -11052,7 +11046,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -11060,7 +11054,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -11068,7 +11062,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -11076,7 +11070,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -11087,7 +11081,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -11098,7 +11092,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -11109,7 +11103,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -11120,7 +11114,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -11131,7 +11125,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -11142,7 +11136,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -11153,7 +11147,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -11164,7 +11158,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -11172,7 +11166,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -11180,7 +11174,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -11188,7 +11182,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -11196,7 +11190,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -11204,7 +11198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -11212,7 +11206,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -11220,7 +11214,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -11228,7 +11222,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -11236,7 +11230,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -11244,7 +11238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -11252,7 +11246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -11260,7 +11254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -11268,7 +11262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -11276,7 +11270,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -11284,7 +11278,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -11292,7 +11286,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -11300,7 +11294,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -11308,7 +11302,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -11316,7 +11310,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -11324,7 +11318,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -11347,18 +11341,18 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="73.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" customWidth="1"/>
+    <col min="5" max="5" width="73.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11384,7 +11378,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -11410,7 +11404,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -11436,7 +11430,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -11462,7 +11456,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -11488,7 +11482,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -11514,7 +11508,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -11534,7 +11528,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -11554,7 +11548,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -11574,7 +11568,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -11594,7 +11588,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -11616,7 +11610,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -11638,7 +11632,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -11660,7 +11654,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -11682,7 +11676,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -11704,7 +11698,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -11726,7 +11720,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -11746,7 +11740,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -11766,7 +11760,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -11805,59 +11799,59 @@
       <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1328125" customWidth="1"/>
+    <col min="7" max="7" width="15.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>201</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -11866,40 +11860,40 @@
         <v>136</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>136</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>228</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -11908,63 +11902,63 @@
         <v>136</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>136</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>208</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>210</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="D7" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>243</v>
-      </c>
       <c r="F7" s="57" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G7" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -11973,7 +11967,7 @@
         <v>136</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>136</v>
@@ -11985,49 +11979,49 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>212</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>214</v>
       </c>
       <c r="G9" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>216</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>218</v>
       </c>
       <c r="G10" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="114" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
@@ -12036,75 +12030,75 @@
         <v>136</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>222</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>224</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="228" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>232</v>
       </c>
       <c r="G13" s="56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="57" x14ac:dyDescent="0.45">
       <c r="C19" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -12126,43 +12120,43 @@
       <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
@@ -12189,7 +12183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -12198,7 +12192,7 @@
         <v>Ajaba Dextérité</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D3" s="16">
         <v>0</v>
@@ -12216,7 +12210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -12225,7 +12219,7 @@
         <v>Ajaba Vigueur</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
@@ -12243,7 +12237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -12252,7 +12246,7 @@
         <v>Ajaba Manipulation</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D5" s="16">
         <v>0</v>
@@ -12270,7 +12264,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -12279,7 +12273,7 @@
         <v>Ajaba Vitesse</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D6" s="17">
         <f>D2+D3+D8-$D8</f>
@@ -12302,7 +12296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -12311,7 +12305,7 @@
         <v>Ajaba Initiative</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D7" s="17">
         <f>D3</f>
@@ -12334,7 +12328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -12343,7 +12337,7 @@
         <v>Ajaba Facteur espèce</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D8" s="18">
         <v>5</v>
@@ -12361,7 +12355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
@@ -12384,7 +12378,7 @@
       </c>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>6</v>
       </c>
@@ -12393,7 +12387,7 @@
         <v>Ananasi Dextérité</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D10" s="20">
         <v>0</v>
@@ -12407,7 +12401,7 @@
       </c>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="19" t="s">
         <v>6</v>
       </c>
@@ -12416,7 +12410,7 @@
         <v>Ananasi Vigueur</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20">
         <v>0</v>
@@ -12430,7 +12424,7 @@
       </c>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
@@ -12439,7 +12433,7 @@
         <v>Ananasi Manipulation</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20">
         <v>0</v>
@@ -12453,7 +12447,7 @@
       </c>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -12462,7 +12456,7 @@
         <v>Ananasi Vitesse</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D13" s="21">
         <f>D9+D10+D15-$D15</f>
@@ -12482,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>6</v>
       </c>
@@ -12491,7 +12485,7 @@
         <v>Ananasi Initiative</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" s="21">
         <f>D10</f>
@@ -12511,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
         <v>6</v>
       </c>
@@ -12520,7 +12514,7 @@
         <v>Ananasi Facteur espèce</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" s="22">
         <v>5</v>
@@ -12536,7 +12530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="23" t="s">
         <v>10</v>
       </c>
@@ -12563,7 +12557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
@@ -12572,7 +12566,7 @@
         <v>Bastet Dextérité</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D17" s="24">
         <v>0</v>
@@ -12590,7 +12584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="23" t="s">
         <v>10</v>
       </c>
@@ -12599,7 +12593,7 @@
         <v>Bastet Vigueur</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D18" s="24">
         <v>0</v>
@@ -12617,7 +12611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="23" t="s">
         <v>10</v>
       </c>
@@ -12626,7 +12620,7 @@
         <v>Bastet Manipulation</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D19" s="24">
         <v>0</v>
@@ -12644,7 +12638,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>10</v>
       </c>
@@ -12653,7 +12647,7 @@
         <v>Bastet Vitesse</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D20" s="25">
         <f>D16+D17+D22-$D22</f>
@@ -12676,7 +12670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="23" t="s">
         <v>10</v>
       </c>
@@ -12685,7 +12679,7 @@
         <v>Bastet Initiative</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D21" s="25">
         <f>D17</f>
@@ -12708,7 +12702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="23" t="s">
         <v>10</v>
       </c>
@@ -12717,7 +12711,7 @@
         <v>Bastet Facteur espèce</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D22" s="26">
         <v>5</v>
@@ -12735,7 +12729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="27" t="s">
         <v>12</v>
       </c>
@@ -12758,7 +12752,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="27" t="s">
         <v>12</v>
       </c>
@@ -12767,7 +12761,7 @@
         <v>Corax Dextérité</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D24" s="28">
         <v>0</v>
@@ -12781,7 +12775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="27" t="s">
         <v>12</v>
       </c>
@@ -12790,7 +12784,7 @@
         <v>Corax Vigueur</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D25" s="28">
         <v>0</v>
@@ -12804,7 +12798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="27" t="s">
         <v>12</v>
       </c>
@@ -12813,7 +12807,7 @@
         <v>Corax Manipulation</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D26" s="28">
         <v>0</v>
@@ -12827,7 +12821,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="27" t="s">
         <v>12</v>
       </c>
@@ -12836,7 +12830,7 @@
         <v>Corax Vitesse</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D27" s="29">
         <f>D23+D24+D29-$D29</f>
@@ -12853,7 +12847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="27" t="s">
         <v>12</v>
       </c>
@@ -12862,7 +12856,7 @@
         <v>Corax Initiative</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D28" s="29">
         <f>D24</f>
@@ -12879,7 +12873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="27" t="s">
         <v>12</v>
       </c>
@@ -12888,7 +12882,7 @@
         <v>Corax Facteur espèce</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D29" s="30">
         <v>5</v>
@@ -12902,7 +12896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="31" t="s">
         <v>15</v>
       </c>
@@ -12929,7 +12923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="31" t="s">
         <v>15</v>
       </c>
@@ -12938,7 +12932,7 @@
         <v>Gurahl Dextérité</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D31" s="32">
         <v>0</v>
@@ -12954,7 +12948,7 @@
       </c>
       <c r="H31" s="32"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="31" t="s">
         <v>15</v>
       </c>
@@ -12963,7 +12957,7 @@
         <v>Gurahl Vigueur</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D32" s="32">
         <v>0</v>
@@ -12981,7 +12975,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="31" t="s">
         <v>15</v>
       </c>
@@ -12990,7 +12984,7 @@
         <v>Gurahl Manipulation</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D33" s="32">
         <v>0</v>
@@ -13008,7 +13002,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="31" t="s">
         <v>15</v>
       </c>
@@ -13017,7 +13011,7 @@
         <v>Gurahl Vitesse</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D34" s="33">
         <f>D30+D31+D36-$D36</f>
@@ -13040,7 +13034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="31" t="s">
         <v>15</v>
       </c>
@@ -13049,7 +13043,7 @@
         <v>Gurahl Initiative</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D35" s="33">
         <f>D31</f>
@@ -13072,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="31" t="s">
         <v>15</v>
       </c>
@@ -13081,7 +13075,7 @@
         <v>Gurahl Facteur espèce</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D36" s="34">
         <v>5</v>
@@ -13099,7 +13093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="35" t="s">
         <v>17</v>
       </c>
@@ -13126,7 +13120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="35" t="s">
         <v>17</v>
       </c>
@@ -13135,7 +13129,7 @@
         <v>Kitsune Dextérité</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D38" s="36">
         <v>0</v>
@@ -13153,7 +13147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="35" t="s">
         <v>17</v>
       </c>
@@ -13162,7 +13156,7 @@
         <v>Kitsune Vigueur</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D39" s="36">
         <v>0</v>
@@ -13180,7 +13174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="35" t="s">
         <v>17</v>
       </c>
@@ -13189,7 +13183,7 @@
         <v>Kitsune Manipulation</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D40" s="36">
         <v>1</v>
@@ -13207,7 +13201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="35" t="s">
         <v>17</v>
       </c>
@@ -13216,7 +13210,7 @@
         <v>Kitsune Vitesse</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D41" s="36">
         <f>D37+D38+D43-$D43</f>
@@ -13239,7 +13233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="35" t="s">
         <v>17</v>
       </c>
@@ -13248,7 +13242,7 @@
         <v>Kitsune Initiative</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D42" s="36">
         <f>D38</f>
@@ -13271,7 +13265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="35" t="s">
         <v>17</v>
       </c>
@@ -13280,7 +13274,7 @@
         <v>Kitsune Facteur espèce</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D43" s="36">
         <v>5</v>
@@ -13298,7 +13292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="37" t="s">
         <v>22</v>
       </c>
@@ -13325,7 +13319,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="37" t="s">
         <v>22</v>
       </c>
@@ -13334,7 +13328,7 @@
         <v>Nâga Dextérité</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D45" s="38">
         <v>0</v>
@@ -13352,7 +13346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="37" t="s">
         <v>22</v>
       </c>
@@ -13361,7 +13355,7 @@
         <v>Nâga Vigueur</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D46" s="38">
         <v>0</v>
@@ -13379,7 +13373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="37" t="s">
         <v>22</v>
       </c>
@@ -13388,7 +13382,7 @@
         <v>Nâga Manipulation</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D47" s="38">
         <v>0</v>
@@ -13406,7 +13400,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="37" t="s">
         <v>22</v>
       </c>
@@ -13415,7 +13409,7 @@
         <v>Nâga Vitesse</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D48" s="39">
         <f>D44+D45+D50-$D50</f>
@@ -13438,7 +13432,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="37" t="s">
         <v>22</v>
       </c>
@@ -13447,7 +13441,7 @@
         <v>Nâga Initiative</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D49" s="39">
         <f>D45</f>
@@ -13470,7 +13464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="37" t="s">
         <v>22</v>
       </c>
@@ -13479,7 +13473,7 @@
         <v>Nâga Facteur espèce</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D50" s="40">
         <v>5</v>
@@ -13497,7 +13491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="41" t="s">
         <v>24</v>
       </c>
@@ -13524,7 +13518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="41" t="s">
         <v>24</v>
       </c>
@@ -13533,7 +13527,7 @@
         <v>Nuwisha Dextérité</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D52" s="42">
         <v>0</v>
@@ -13551,7 +13545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="41" t="s">
         <v>24</v>
       </c>
@@ -13560,7 +13554,7 @@
         <v>Nuwisha Vigueur</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D53" s="42">
         <v>0</v>
@@ -13578,7 +13572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="41" t="s">
         <v>24</v>
       </c>
@@ -13587,7 +13581,7 @@
         <v>Nuwisha Manipulation</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D54" s="42">
         <v>0</v>
@@ -13605,7 +13599,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="41" t="s">
         <v>24</v>
       </c>
@@ -13614,7 +13608,7 @@
         <v>Nuwisha Vitesse</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D55" s="43">
         <f>D51+D52+D57-$D57</f>
@@ -13637,7 +13631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="41" t="s">
         <v>24</v>
       </c>
@@ -13646,7 +13640,7 @@
         <v>Nuwisha Initiative</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D56" s="43">
         <f>D52</f>
@@ -13669,7 +13663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="41" t="s">
         <v>24</v>
       </c>
@@ -13678,7 +13672,7 @@
         <v>Nuwisha Facteur espèce</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D57" s="44">
         <v>5</v>
@@ -13696,7 +13690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="45" t="s">
         <v>26</v>
       </c>
@@ -13719,7 +13713,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="45" t="s">
         <v>26</v>
       </c>
@@ -13728,7 +13722,7 @@
         <v>Ratkin Dextérité</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D59" s="46">
         <v>0</v>
@@ -13742,7 +13736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="45" t="s">
         <v>26</v>
       </c>
@@ -13751,7 +13745,7 @@
         <v>Ratkin Vigueur</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D60" s="46">
         <v>0</v>
@@ -13765,7 +13759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="45" t="s">
         <v>26</v>
       </c>
@@ -13774,7 +13768,7 @@
         <v>Ratkin Manipulation</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D61" s="46">
         <v>0</v>
@@ -13788,7 +13782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="45" t="s">
         <v>26</v>
       </c>
@@ -13797,7 +13791,7 @@
         <v>Ratkin Vitesse</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D62" s="47">
         <f>D58+D59+D64-$D64</f>
@@ -13814,7 +13808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="45" t="s">
         <v>26</v>
       </c>
@@ -13823,7 +13817,7 @@
         <v>Ratkin Initiative</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D63" s="47">
         <f>D59</f>
@@ -13840,7 +13834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="45" t="s">
         <v>26</v>
       </c>
@@ -13849,7 +13843,7 @@
         <v>Ratkin Facteur espèce</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D64" s="48">
         <v>5</v>
@@ -13863,7 +13857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="49" t="s">
         <v>28</v>
       </c>
@@ -13890,7 +13884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="49" t="s">
         <v>28</v>
       </c>
@@ -13899,7 +13893,7 @@
         <v>Rokea Dextérité</v>
       </c>
       <c r="C66" s="49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="50">
         <v>0</v>
@@ -13917,7 +13911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="49" t="s">
         <v>28</v>
       </c>
@@ -13926,7 +13920,7 @@
         <v>Rokea Vigueur</v>
       </c>
       <c r="C67" s="49" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="50">
         <v>0</v>
@@ -13944,7 +13938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="49" t="s">
         <v>28</v>
       </c>
@@ -13953,7 +13947,7 @@
         <v>Rokea Manipulation</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="50">
         <v>0</v>
@@ -13971,7 +13965,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="49" t="s">
         <v>28</v>
       </c>
@@ -13980,7 +13974,7 @@
         <v>Rokea Vitesse</v>
       </c>
       <c r="C69" s="49" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D69" s="51">
         <f>D65+D66+D71-$D71</f>
@@ -14003,7 +13997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="49" t="s">
         <v>28</v>
       </c>
@@ -14012,7 +14006,7 @@
         <v>Rokea Initiative</v>
       </c>
       <c r="C70" s="49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D70" s="51">
         <f>D66</f>
@@ -14035,7 +14029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="49" t="s">
         <v>28</v>
       </c>
@@ -14044,7 +14038,7 @@
         <v>Rokea Facteur espèce</v>
       </c>
       <c r="C71" s="49" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D71" s="52">
         <v>5</v>
@@ -14062,7 +14056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="53" t="s">
         <v>30</v>
       </c>
@@ -14089,7 +14083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="53" t="s">
         <v>30</v>
       </c>
@@ -14098,7 +14092,7 @@
         <v>Uratha Dextérité</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D73" s="54">
         <v>0</v>
@@ -14116,7 +14110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="53" t="s">
         <v>30</v>
       </c>
@@ -14125,7 +14119,7 @@
         <v>Uratha Vigueur</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D74" s="54">
         <v>0</v>
@@ -14143,7 +14137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="53" t="s">
         <v>30</v>
       </c>
@@ -14152,7 +14146,7 @@
         <v>Uratha Manipulation</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D75" s="54">
         <v>0</v>
@@ -14170,7 +14164,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="53" t="s">
         <v>30</v>
       </c>
@@ -14179,7 +14173,7 @@
         <v>Uratha Vitesse</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D76" s="54">
         <f>D72+D73+D78-$D78</f>
@@ -14202,7 +14196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="53" t="s">
         <v>30</v>
       </c>
@@ -14211,7 +14205,7 @@
         <v>Uratha Initiative</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D77" s="54">
         <f>D73</f>
@@ -14234,7 +14228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="53" t="s">
         <v>30</v>
       </c>
@@ -14243,7 +14237,7 @@
         <v>Uratha Facteur espèce</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D78" s="54">
         <v>5</v>

--- a/Les différents types de Ferae.xlsx
+++ b/Les différents types de Ferae.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertolen\Documents\JdR\Univers\Chroniques des Ténèbres\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648587AF-B740-4E05-A0B5-322AB3CD76E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A49841C-3431-4128-855D-AA7E75AEA561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Auspices!$A$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Espèces!$A$1:$M$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Espèces!$A$1:$M$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Formes!$A$1:$G$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Formes (2)'!$A$1:$H$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tribus!$A$1:$B$43</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="257">
   <si>
     <t>Espèce</t>
   </si>
@@ -1772,9 +1772,6 @@
     <t>Érudit</t>
   </si>
   <si>
-    <t>Messager</t>
-  </si>
-  <si>
     <t>Guerrisseur</t>
   </si>
   <si>
@@ -1794,6 +1791,21 @@
   </si>
   <si>
     <t>Illusion</t>
+  </si>
+  <si>
+    <t>Camazotz</t>
+  </si>
+  <si>
+    <t>Chauve-Souris</t>
+  </si>
+  <si>
+    <t>Espion</t>
+  </si>
+  <si>
+    <t>Journaliste</t>
+  </si>
+  <si>
+    <t>Espionner</t>
   </si>
 </sst>
 </file>
@@ -10547,23 +10559,23 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.53125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.265625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -10681,143 +10693,149 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>252</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>148</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="J7" t="s">
-        <v>252</v>
+      <c r="H7" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>155</v>
+      <c r="G8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="J8" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -10825,28 +10843,19 @@
       <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>248</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -10854,85 +10863,113 @@
       <c r="F11" t="s">
         <v>35</v>
       </c>
+      <c r="G11" t="s">
+        <v>140</v>
+      </c>
       <c r="H11" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+        <v>149</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" t="s">
         <v>165</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E13">
+      <c r="D14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>34</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J14" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="58"/>
       <c r="B15" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M13" xr:uid="{34298D81-0FE3-402E-ACB8-ACB4A3B717C7}"/>
+  <autoFilter ref="A1:M14" xr:uid="{34298D81-0FE3-402E-ACB8-ACB4A3B717C7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M14">
+      <sortCondition ref="A1:A13"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Les différents types de Ferae.xlsx
+++ b/Les différents types de Ferae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertolen\Documents\JdR\Univers\Chroniques des Ténèbres\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A49841C-3431-4128-855D-AA7E75AEA561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23A31BA-FDC3-42FF-A365-5C121E2A931A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="258">
   <si>
     <t>Espèce</t>
   </si>
@@ -521,9 +521,6 @@
   </si>
   <si>
     <t>Guérir</t>
-  </si>
-  <si>
-    <t>Ravager</t>
   </si>
   <si>
     <t>Voyager, parler</t>
@@ -1806,6 +1803,12 @@
   </si>
   <si>
     <t>Espionner</t>
+  </si>
+  <si>
+    <t>Détruire</t>
+  </si>
+  <si>
+    <t>Pestilence ?</t>
   </si>
 </sst>
 </file>
@@ -10559,7 +10562,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10589,7 +10592,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -10598,7 +10601,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>150</v>
@@ -10610,10 +10613,10 @@
         <v>144</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>93</v>
@@ -10639,7 +10642,7 @@
         <v>151</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -10653,7 +10656,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -10676,7 +10679,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -10693,16 +10696,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" t="s">
         <v>253</v>
-      </c>
-      <c r="D5" t="s">
-        <v>254</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -10711,7 +10714,7 @@
         <v>34</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
@@ -10728,7 +10731,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -10740,7 +10743,7 @@
         <v>154</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>148</v>
@@ -10757,7 +10760,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -10780,7 +10783,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -10792,10 +10795,10 @@
         <v>140</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
@@ -10809,7 +10812,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -10821,7 +10824,7 @@
         <v>155</v>
       </c>
       <c r="J9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -10835,7 +10838,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -10855,7 +10858,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -10873,7 +10876,7 @@
         <v>149</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
@@ -10893,10 +10896,13 @@
         <v>35</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>159</v>
+        <v>256</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="J12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
@@ -10916,7 +10922,7 @@
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>92</v>
@@ -10933,7 +10939,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -10948,7 +10954,7 @@
         <v>157</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
         <v>146</v>
@@ -10957,7 +10963,7 @@
         <v>145</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
@@ -11409,10 +11415,10 @@
         <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -11435,10 +11441,10 @@
         <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -11461,10 +11467,10 @@
         <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -11487,10 +11493,10 @@
         <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -11513,10 +11519,10 @@
         <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -11539,10 +11545,10 @@
         <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -11636,7 +11642,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>67</v>
@@ -11702,7 +11708,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>76</v>
@@ -11746,7 +11752,7 @@
         <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>82</v>
@@ -11849,22 +11855,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
@@ -11873,16 +11879,16 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>198</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>199</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>136</v>
@@ -11897,16 +11903,16 @@
         <v>136</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>201</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>136</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
@@ -11915,16 +11921,16 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>226</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>136</v>
@@ -11939,13 +11945,13 @@
         <v>136</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>136</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>136</v>
@@ -11957,16 +11963,16 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>208</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>136</v>
@@ -11977,19 +11983,19 @@
         <v>17</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="57" t="s">
         <v>237</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>238</v>
       </c>
       <c r="G7" s="56" t="s">
         <v>136</v>
@@ -12004,7 +12010,7 @@
         <v>136</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>136</v>
@@ -12022,16 +12028,16 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="G9" s="56" t="s">
         <v>136</v>
@@ -12043,16 +12049,16 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>216</v>
       </c>
       <c r="G10" s="56" t="s">
         <v>136</v>
@@ -12067,13 +12073,13 @@
         <v>136</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>136</v>
@@ -12085,16 +12091,16 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>221</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>222</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>136</v>
@@ -12105,19 +12111,19 @@
         <v>30</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="G13" s="56" t="s">
         <v>136</v>
@@ -12125,17 +12131,17 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="57" x14ac:dyDescent="0.45">
       <c r="C19" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -12172,25 +12178,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -12202,7 +12208,7 @@
         <v>Ajaba Force</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="16">
         <v>0</v>
@@ -12229,7 +12235,7 @@
         <v>Ajaba Dextérité</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="16">
         <v>0</v>
@@ -12256,7 +12262,7 @@
         <v>Ajaba Vigueur</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
@@ -12283,7 +12289,7 @@
         <v>Ajaba Manipulation</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D5" s="16">
         <v>0</v>
@@ -12310,7 +12316,7 @@
         <v>Ajaba Vitesse</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="17">
         <f>D2+D3+D8-$D8</f>
@@ -12342,7 +12348,7 @@
         <v>Ajaba Initiative</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="17">
         <f>D3</f>
@@ -12374,7 +12380,7 @@
         <v>Ajaba Facteur espèce</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D8" s="18">
         <v>5</v>
@@ -12401,7 +12407,7 @@
         <v>Ananasi Force</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="20">
         <v>0</v>
@@ -12424,7 +12430,7 @@
         <v>Ananasi Dextérité</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D10" s="20">
         <v>0</v>
@@ -12447,7 +12453,7 @@
         <v>Ananasi Vigueur</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20">
         <v>0</v>
@@ -12470,7 +12476,7 @@
         <v>Ananasi Manipulation</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" s="20">
         <v>0</v>
@@ -12493,7 +12499,7 @@
         <v>Ananasi Vitesse</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="21">
         <f>D9+D10+D15-$D15</f>
@@ -12522,7 +12528,7 @@
         <v>Ananasi Initiative</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D14" s="21">
         <f>D10</f>
@@ -12551,7 +12557,7 @@
         <v>Ananasi Facteur espèce</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D15" s="22">
         <v>5</v>
@@ -12576,7 +12582,7 @@
         <v>Bastet Force</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" s="24">
         <v>0</v>
@@ -12603,7 +12609,7 @@
         <v>Bastet Dextérité</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="24">
         <v>0</v>
@@ -12630,7 +12636,7 @@
         <v>Bastet Vigueur</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="24">
         <v>0</v>
@@ -12657,7 +12663,7 @@
         <v>Bastet Manipulation</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="24">
         <v>0</v>
@@ -12684,7 +12690,7 @@
         <v>Bastet Vitesse</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="25">
         <f>D16+D17+D22-$D22</f>
@@ -12716,7 +12722,7 @@
         <v>Bastet Initiative</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D21" s="25">
         <f>D17</f>
@@ -12748,7 +12754,7 @@
         <v>Bastet Facteur espèce</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D22" s="26">
         <v>5</v>
@@ -12775,7 +12781,7 @@
         <v>Corax Force</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" s="28">
         <v>0</v>
@@ -12798,7 +12804,7 @@
         <v>Corax Dextérité</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D24" s="28">
         <v>0</v>
@@ -12821,7 +12827,7 @@
         <v>Corax Vigueur</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="28">
         <v>0</v>
@@ -12844,7 +12850,7 @@
         <v>Corax Manipulation</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="28">
         <v>0</v>
@@ -12867,7 +12873,7 @@
         <v>Corax Vitesse</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D27" s="29">
         <f>D23+D24+D29-$D29</f>
@@ -12893,7 +12899,7 @@
         <v>Corax Initiative</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D28" s="29">
         <f>D24</f>
@@ -12919,7 +12925,7 @@
         <v>Corax Facteur espèce</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D29" s="30">
         <v>5</v>
@@ -12942,7 +12948,7 @@
         <v>Gurahl Force</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D30" s="32">
         <v>0</v>
@@ -12969,7 +12975,7 @@
         <v>Gurahl Dextérité</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D31" s="32">
         <v>0</v>
@@ -12994,7 +13000,7 @@
         <v>Gurahl Vigueur</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" s="32">
         <v>0</v>
@@ -13021,7 +13027,7 @@
         <v>Gurahl Manipulation</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D33" s="32">
         <v>0</v>
@@ -13048,7 +13054,7 @@
         <v>Gurahl Vitesse</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D34" s="33">
         <f>D30+D31+D36-$D36</f>
@@ -13080,7 +13086,7 @@
         <v>Gurahl Initiative</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D35" s="33">
         <f>D31</f>
@@ -13112,7 +13118,7 @@
         <v>Gurahl Facteur espèce</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D36" s="34">
         <v>5</v>
@@ -13139,7 +13145,7 @@
         <v>Kitsune Force</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D37" s="36">
         <v>0</v>
@@ -13166,7 +13172,7 @@
         <v>Kitsune Dextérité</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" s="36">
         <v>0</v>
@@ -13193,7 +13199,7 @@
         <v>Kitsune Vigueur</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39" s="36">
         <v>0</v>
@@ -13220,7 +13226,7 @@
         <v>Kitsune Manipulation</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" s="36">
         <v>1</v>
@@ -13247,7 +13253,7 @@
         <v>Kitsune Vitesse</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D41" s="36">
         <f>D37+D38+D43-$D43</f>
@@ -13279,7 +13285,7 @@
         <v>Kitsune Initiative</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D42" s="36">
         <f>D38</f>
@@ -13311,7 +13317,7 @@
         <v>Kitsune Facteur espèce</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D43" s="36">
         <v>5</v>
@@ -13338,7 +13344,7 @@
         <v>Nâga Force</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D44" s="38">
         <v>0</v>
@@ -13365,7 +13371,7 @@
         <v>Nâga Dextérité</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D45" s="38">
         <v>0</v>
@@ -13392,7 +13398,7 @@
         <v>Nâga Vigueur</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D46" s="38">
         <v>0</v>
@@ -13419,7 +13425,7 @@
         <v>Nâga Manipulation</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D47" s="38">
         <v>0</v>
@@ -13446,7 +13452,7 @@
         <v>Nâga Vitesse</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D48" s="39">
         <f>D44+D45+D50-$D50</f>
@@ -13478,7 +13484,7 @@
         <v>Nâga Initiative</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D49" s="39">
         <f>D45</f>
@@ -13510,7 +13516,7 @@
         <v>Nâga Facteur espèce</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D50" s="40">
         <v>5</v>
@@ -13537,7 +13543,7 @@
         <v>Nuwisha Force</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D51" s="42">
         <v>0</v>
@@ -13564,7 +13570,7 @@
         <v>Nuwisha Dextérité</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D52" s="42">
         <v>0</v>
@@ -13591,7 +13597,7 @@
         <v>Nuwisha Vigueur</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D53" s="42">
         <v>0</v>
@@ -13618,7 +13624,7 @@
         <v>Nuwisha Manipulation</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D54" s="42">
         <v>0</v>
@@ -13645,7 +13651,7 @@
         <v>Nuwisha Vitesse</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D55" s="43">
         <f>D51+D52+D57-$D57</f>
@@ -13677,7 +13683,7 @@
         <v>Nuwisha Initiative</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D56" s="43">
         <f>D52</f>
@@ -13709,7 +13715,7 @@
         <v>Nuwisha Facteur espèce</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D57" s="44">
         <v>5</v>
@@ -13736,7 +13742,7 @@
         <v>Ratkin Force</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="46">
         <v>0</v>
@@ -13759,7 +13765,7 @@
         <v>Ratkin Dextérité</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D59" s="46">
         <v>0</v>
@@ -13782,7 +13788,7 @@
         <v>Ratkin Vigueur</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D60" s="46">
         <v>0</v>
@@ -13805,7 +13811,7 @@
         <v>Ratkin Manipulation</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D61" s="46">
         <v>0</v>
@@ -13828,7 +13834,7 @@
         <v>Ratkin Vitesse</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D62" s="47">
         <f>D58+D59+D64-$D64</f>
@@ -13854,7 +13860,7 @@
         <v>Ratkin Initiative</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D63" s="47">
         <f>D59</f>
@@ -13880,7 +13886,7 @@
         <v>Ratkin Facteur espèce</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D64" s="48">
         <v>5</v>
@@ -13903,7 +13909,7 @@
         <v>Rokea Force</v>
       </c>
       <c r="C65" s="49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D65" s="50">
         <v>0</v>
@@ -13930,7 +13936,7 @@
         <v>Rokea Dextérité</v>
       </c>
       <c r="C66" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="50">
         <v>0</v>
@@ -13957,7 +13963,7 @@
         <v>Rokea Vigueur</v>
       </c>
       <c r="C67" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="50">
         <v>0</v>
@@ -13984,7 +13990,7 @@
         <v>Rokea Manipulation</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="50">
         <v>0</v>
@@ -14011,7 +14017,7 @@
         <v>Rokea Vitesse</v>
       </c>
       <c r="C69" s="49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D69" s="51">
         <f>D65+D66+D71-$D71</f>
@@ -14043,7 +14049,7 @@
         <v>Rokea Initiative</v>
       </c>
       <c r="C70" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D70" s="51">
         <f>D66</f>
@@ -14075,7 +14081,7 @@
         <v>Rokea Facteur espèce</v>
       </c>
       <c r="C71" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D71" s="52">
         <v>5</v>
@@ -14102,7 +14108,7 @@
         <v>Uratha Force</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D72" s="54">
         <v>0</v>
@@ -14129,7 +14135,7 @@
         <v>Uratha Dextérité</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D73" s="54">
         <v>0</v>
@@ -14156,7 +14162,7 @@
         <v>Uratha Vigueur</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D74" s="54">
         <v>0</v>
@@ -14183,7 +14189,7 @@
         <v>Uratha Manipulation</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D75" s="54">
         <v>0</v>
@@ -14210,7 +14216,7 @@
         <v>Uratha Vitesse</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D76" s="54">
         <f>D72+D73+D78-$D78</f>
@@ -14242,7 +14248,7 @@
         <v>Uratha Initiative</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D77" s="54">
         <f>D73</f>
@@ -14274,7 +14280,7 @@
         <v>Uratha Facteur espèce</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="54">
         <v>5</v>
